--- a/part2_developments/ch5_simulations_JICF_time_instants.xlsx
+++ b/part2_developments/ch5_simulations_JICF_time_instants.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>OP</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>UG100_DX10</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>UG75_DX20</t>
@@ -119,7 +116,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,12 +126,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -169,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -183,6 +174,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -195,9 +188,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,7 +552,7 @@
   <dimension ref="B1:Y16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
+      <selection activeCell="X5" sqref="X5:X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -597,30 +587,30 @@
       <c r="C3">
         <v>7.21</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="14" t="s">
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="14" t="s">
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="16"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="18"/>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.35">
       <c r="G4" t="s">
@@ -682,12 +672,12 @@
       </c>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="G5">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="G5" s="12">
         <v>1</v>
       </c>
       <c r="H5" s="4">
@@ -748,7 +738,7 @@
         <f>H5*$C$11</f>
         <v>0.13982612967447969</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="13">
         <v>1</v>
       </c>
       <c r="Y5" s="12">
@@ -826,10 +816,10 @@
         <f t="shared" ref="W6:W15" si="5">H6*$C$11</f>
         <v>0.19975946300781308</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="13">
         <v>2</v>
       </c>
-      <c r="Y6" s="12">
+      <c r="Y6" s="13">
         <v>18</v>
       </c>
     </row>
@@ -845,7 +835,7 @@
         <f>0.00943051040274414*1000</f>
         <v>9.4305104027441402</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="12">
         <v>3</v>
       </c>
       <c r="H7" s="4">
@@ -905,7 +895,7 @@
         <f t="shared" si="5"/>
         <v>0.2598394630078123</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="13">
         <v>3</v>
       </c>
       <c r="Y7" s="12">
@@ -982,10 +972,10 @@
         <f t="shared" si="5"/>
         <v>0.31973279634114726</v>
       </c>
-      <c r="X8">
+      <c r="X8" s="13">
         <v>4</v>
       </c>
-      <c r="Y8" s="12">
+      <c r="Y8" s="13">
         <v>29</v>
       </c>
     </row>
@@ -1001,7 +991,7 @@
         <f>D8*SQRT(6*$C$3/$C$2)</f>
         <v>23.32704317731303</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="12">
         <v>5</v>
       </c>
       <c r="H9" s="4">
@@ -1064,7 +1054,7 @@
       <c r="X9">
         <v>6</v>
       </c>
-      <c r="Y9" s="18">
+      <c r="Y9" s="14">
         <v>7</v>
       </c>
     </row>
@@ -1143,7 +1133,7 @@
       <c r="X10">
         <v>8</v>
       </c>
-      <c r="Y10" s="19">
+      <c r="Y10" s="12">
         <v>4</v>
       </c>
     </row>
@@ -1159,7 +1149,7 @@
         <f>$C$1/D9</f>
         <v>1.9290914694137164E-2</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="12">
         <v>7</v>
       </c>
       <c r="H11" s="4">
@@ -1222,7 +1212,7 @@
       <c r="X11">
         <v>8</v>
       </c>
-      <c r="Y11" s="19">
+      <c r="Y11" s="12">
         <v>44</v>
       </c>
     </row>
@@ -1290,12 +1280,12 @@
       <c r="X12">
         <v>9</v>
       </c>
-      <c r="Y12" s="19">
+      <c r="Y12" s="12">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="G13">
+      <c r="G13" s="12">
         <v>9</v>
       </c>
       <c r="H13" s="4">
@@ -1358,6 +1348,7 @@
       <c r="X13">
         <v>10</v>
       </c>
+      <c r="Y13" s="12"/>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.35">
       <c r="G14">
@@ -1395,7 +1386,7 @@
       <c r="P14" s="10">
         <v>12</v>
       </c>
-      <c r="Q14" s="17">
+      <c r="Q14" s="11">
         <v>3</v>
       </c>
       <c r="R14" s="5">
@@ -1423,9 +1414,12 @@
       <c r="X14">
         <v>12</v>
       </c>
+      <c r="Y14" s="12">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="G15">
+      <c r="G15" s="12">
         <v>11</v>
       </c>
       <c r="H15" s="4">
@@ -1460,7 +1454,7 @@
       <c r="P15" s="5">
         <v>15</v>
       </c>
-      <c r="Q15" s="17">
+      <c r="Q15" s="11">
         <v>5</v>
       </c>
       <c r="R15" s="5">
@@ -1485,8 +1479,11 @@
         <f t="shared" si="5"/>
         <v>0.73551946300781412</v>
       </c>
-      <c r="X15" t="s">
-        <v>21</v>
+      <c r="X15">
+        <v>15</v>
+      </c>
+      <c r="Y15" s="12">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.35">
